--- a/results/spreadsheets/Results - Allen Cahn.xlsx
+++ b/results/spreadsheets/Results - Allen Cahn.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>Broad Method</t>
   </si>
@@ -98,13 +98,16 @@
   <si>
     <t>Std dev</t>
   </si>
+  <si>
+    <t>D=E-4 is raissi, except raissi has periodic and my code enforces dirichlet -1 at boundary, so all results will be kind of run</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -457,13 +460,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -497,26 +520,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,46 +818,46 @@
     <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="30" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="25" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="27" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="28"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="40"/>
     </row>
     <row r="2" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="15" t="s">
         <v>20</v>
       </c>
@@ -882,13 +885,13 @@
       <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="26" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
@@ -923,14 +926,14 @@
       <c r="K3" s="9">
         <v>25241.077127695</v>
       </c>
-      <c r="L3" s="33">
+      <c r="L3" s="22">
         <f t="shared" ref="L3:L57" si="0">K3/3600</f>
         <v>7.0114103132486107</v>
       </c>
       <c r="M3" s="9">
         <v>6.90727682904259E-4</v>
       </c>
-      <c r="N3" s="38"/>
+      <c r="N3" s="27"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="10"/>
@@ -949,14 +952,14 @@
       <c r="K4" s="9">
         <v>25254.248296499201</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="22">
         <f t="shared" si="0"/>
         <v>7.0150689712497778</v>
       </c>
       <c r="M4" s="9">
         <v>1.3860450285509401E-3</v>
       </c>
-      <c r="N4" s="38"/>
+      <c r="N4" s="27"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="10"/>
@@ -975,14 +978,14 @@
       <c r="K5" s="9">
         <v>25295.6739795207</v>
       </c>
-      <c r="L5" s="33">
+      <c r="L5" s="22">
         <f t="shared" si="0"/>
         <v>7.026576105422417</v>
       </c>
       <c r="M5" s="9">
         <v>1.61934411647295E-3</v>
       </c>
-      <c r="N5" s="38"/>
+      <c r="N5" s="27"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="10"/>
@@ -1001,14 +1004,14 @@
       <c r="K6" s="9">
         <v>25625.4035966396</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="22">
         <f t="shared" si="0"/>
         <v>7.118167665733222</v>
       </c>
       <c r="M6" s="9">
         <v>2.46403474196028E-3</v>
       </c>
-      <c r="N6" s="38"/>
+      <c r="N6" s="27"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="10"/>
@@ -1027,14 +1030,14 @@
       <c r="K7" s="9">
         <v>25642.935359716401</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="22">
         <f t="shared" si="0"/>
         <v>7.1230375999212221</v>
       </c>
       <c r="M7" s="9">
         <v>8.3621126099320102E-4</v>
       </c>
-      <c r="N7" s="38"/>
+      <c r="N7" s="27"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="10"/>
@@ -1053,14 +1056,14 @@
       <c r="K8" s="9">
         <v>25710.101987123398</v>
       </c>
-      <c r="L8" s="33">
+      <c r="L8" s="22">
         <f t="shared" si="0"/>
         <v>7.1416949964231664</v>
       </c>
       <c r="M8" s="9">
         <v>1.5723277310448799E-3</v>
       </c>
-      <c r="N8" s="38"/>
+      <c r="N8" s="27"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="10"/>
@@ -1079,14 +1082,14 @@
       <c r="K9" s="9">
         <v>25807.200784206299</v>
       </c>
-      <c r="L9" s="33">
+      <c r="L9" s="22">
         <f t="shared" si="0"/>
         <v>7.16866688450175</v>
       </c>
       <c r="M9" s="9">
         <v>1.59163810713718E-3</v>
       </c>
-      <c r="N9" s="38"/>
+      <c r="N9" s="27"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="10"/>
@@ -1105,14 +1108,14 @@
       <c r="K10" s="9">
         <v>26150.104156494101</v>
       </c>
-      <c r="L10" s="33">
+      <c r="L10" s="22">
         <f t="shared" si="0"/>
         <v>7.2639178212483611</v>
       </c>
       <c r="M10" s="9">
         <v>1.5306098580753901E-3</v>
       </c>
-      <c r="N10" s="38"/>
+      <c r="N10" s="27"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="10"/>
@@ -1131,14 +1134,14 @@
       <c r="K11" s="9">
         <v>25502.6294312477</v>
       </c>
-      <c r="L11" s="33">
+      <c r="L11" s="22">
         <f t="shared" si="0"/>
         <v>7.0840637309021393</v>
       </c>
       <c r="M11" s="9">
         <v>1.44277462132075E-3</v>
       </c>
-      <c r="N11" s="38"/>
+      <c r="N11" s="27"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="10"/>
@@ -1157,14 +1160,14 @@
       <c r="K12" s="9">
         <v>25971.655274391102</v>
       </c>
-      <c r="L12" s="33">
+      <c r="L12" s="22">
         <f t="shared" si="0"/>
         <v>7.2143486873308618</v>
       </c>
       <c r="M12" s="9">
         <v>8.2560268998458503E-4</v>
       </c>
-      <c r="N12" s="39"/>
+      <c r="N12" s="28"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="10"/>
@@ -1188,15 +1191,15 @@
         <f>AVERAGE(K3:K12)</f>
         <v>25620.102999353352</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="23">
         <f t="shared" si="0"/>
         <v>7.1166952775981533</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="32">
         <f>AVERAGE(M3:M12)</f>
         <v>1.3959315838444415E-3</v>
       </c>
-      <c r="N13" s="40">
+      <c r="N13" s="29">
         <f>_xlfn.STDEV.P(M3:M12)</f>
         <v>4.9157693606288755E-4</v>
       </c>
@@ -1226,14 +1229,14 @@
       <c r="K14" s="9">
         <v>21654.753135681101</v>
       </c>
-      <c r="L14" s="33">
+      <c r="L14" s="22">
         <f t="shared" si="0"/>
         <v>6.0152092043558616</v>
       </c>
       <c r="M14" s="9">
         <v>1.5328655826623201E-2</v>
       </c>
-      <c r="N14" s="38"/>
+      <c r="N14" s="27"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="10"/>
@@ -1252,14 +1255,14 @@
       <c r="K15" s="9">
         <v>21748.089845895702</v>
       </c>
-      <c r="L15" s="33">
+      <c r="L15" s="22">
         <f t="shared" si="0"/>
         <v>6.041136068304362</v>
       </c>
       <c r="M15" s="9">
         <v>1.1305259204631501E-2</v>
       </c>
-      <c r="N15" s="38"/>
+      <c r="N15" s="27"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="10"/>
@@ -1278,14 +1281,14 @@
       <c r="K16" s="9">
         <v>21751.648873805902</v>
       </c>
-      <c r="L16" s="33">
+      <c r="L16" s="22">
         <f t="shared" si="0"/>
         <v>6.0421246871683056</v>
       </c>
       <c r="M16" s="9">
         <v>5.4079646883581399E-3</v>
       </c>
-      <c r="N16" s="38"/>
+      <c r="N16" s="27"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="10"/>
@@ -1304,14 +1307,14 @@
       <c r="K17" s="9">
         <v>21862.640424013101</v>
       </c>
-      <c r="L17" s="33">
+      <c r="L17" s="22">
         <f t="shared" si="0"/>
         <v>6.0729556733369723</v>
       </c>
       <c r="M17" s="9">
         <v>4.7303786220574198E-3</v>
       </c>
-      <c r="N17" s="38"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="10"/>
@@ -1330,14 +1333,14 @@
       <c r="K18" s="9">
         <v>21905.5882472991</v>
       </c>
-      <c r="L18" s="33">
+      <c r="L18" s="22">
         <f t="shared" si="0"/>
         <v>6.0848856242497495</v>
       </c>
       <c r="M18" s="9">
         <v>9.9507477285125708E-3</v>
       </c>
-      <c r="N18" s="38"/>
+      <c r="N18" s="27"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="10"/>
@@ -1356,14 +1359,14 @@
       <c r="K19" s="9">
         <v>21922.357455015099</v>
       </c>
-      <c r="L19" s="33">
+      <c r="L19" s="22">
         <f t="shared" si="0"/>
         <v>6.0895437375041945</v>
       </c>
       <c r="M19" s="9">
         <v>3.2386191728819001E-3</v>
       </c>
-      <c r="N19" s="38"/>
+      <c r="N19" s="27"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="10"/>
@@ -1382,14 +1385,14 @@
       <c r="K20" s="9">
         <v>21923.480792045499</v>
       </c>
-      <c r="L20" s="33">
+      <c r="L20" s="22">
         <f t="shared" si="0"/>
         <v>6.0898557755681937</v>
       </c>
       <c r="M20" s="9">
         <v>6.2359107652674699E-3</v>
       </c>
-      <c r="N20" s="38"/>
+      <c r="N20" s="27"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="10"/>
@@ -1408,14 +1411,14 @@
       <c r="K21" s="9">
         <v>21972.230531215599</v>
       </c>
-      <c r="L21" s="33">
+      <c r="L21" s="22">
         <f t="shared" si="0"/>
         <v>6.1033973697821109</v>
       </c>
       <c r="M21" s="9">
         <v>8.4083741397442601E-4</v>
       </c>
-      <c r="N21" s="38"/>
+      <c r="N21" s="27"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="10"/>
@@ -1434,14 +1437,14 @@
       <c r="K22" s="9">
         <v>22009.546308994199</v>
       </c>
-      <c r="L22" s="33">
+      <c r="L22" s="22">
         <f t="shared" si="0"/>
         <v>6.1137628636094998</v>
       </c>
       <c r="M22" s="9">
         <v>9.2491165350518708E-3</v>
       </c>
-      <c r="N22" s="38"/>
+      <c r="N22" s="27"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="10"/>
@@ -1460,14 +1463,14 @@
       <c r="K23" s="9">
         <v>22041.6052613258</v>
       </c>
-      <c r="L23" s="33">
+      <c r="L23" s="22">
         <f t="shared" si="0"/>
         <v>6.1226681281460555</v>
       </c>
       <c r="M23" s="9">
         <v>9.3917398627808395E-3</v>
       </c>
-      <c r="N23" s="39"/>
+      <c r="N23" s="28"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="10"/>
@@ -1489,15 +1492,15 @@
         <f>AVERAGE(K14:K23)</f>
         <v>21879.194087529111</v>
       </c>
-      <c r="L24" s="34">
+      <c r="L24" s="23">
         <f t="shared" si="0"/>
         <v>6.0775539132025305</v>
       </c>
-      <c r="M24" s="43">
+      <c r="M24" s="32">
         <f>AVERAGE(M14:M23)</f>
         <v>7.5679229820139349E-3</v>
       </c>
-      <c r="N24" s="40">
+      <c r="N24" s="29">
         <f>_xlfn.STDEV.P(M14:M23)</f>
         <v>4.0560463009963917E-3</v>
       </c>
@@ -1525,14 +1528,14 @@
       <c r="K25" s="9">
         <v>22103.2943937778</v>
       </c>
-      <c r="L25" s="33">
+      <c r="L25" s="22">
         <f t="shared" si="0"/>
         <v>6.1398039982716108</v>
       </c>
       <c r="M25" s="9">
         <v>8.4974109531681993E-3</v>
       </c>
-      <c r="N25" s="38"/>
+      <c r="N25" s="27"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="10"/>
@@ -1551,14 +1554,14 @@
       <c r="K26" s="9">
         <v>22583.929086923501</v>
       </c>
-      <c r="L26" s="33">
+      <c r="L26" s="22">
         <f t="shared" si="0"/>
         <v>6.2733136352565282</v>
       </c>
       <c r="M26" s="9">
         <v>1.6893825398857699E-3</v>
       </c>
-      <c r="N26" s="38"/>
+      <c r="N26" s="27"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="10"/>
@@ -1577,14 +1580,14 @@
       <c r="K27" s="9">
         <v>23111.987153530099</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L27" s="22">
         <f t="shared" si="0"/>
         <v>6.4199964315361386</v>
       </c>
       <c r="M27" s="9">
         <v>1.7747690870050299E-2</v>
       </c>
-      <c r="N27" s="38"/>
+      <c r="N27" s="27"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="10"/>
@@ -1603,14 +1606,14 @@
       <c r="K28" s="9">
         <v>25389.8969578742</v>
       </c>
-      <c r="L28" s="33">
+      <c r="L28" s="22">
         <f t="shared" si="0"/>
         <v>7.0527491549650554</v>
       </c>
       <c r="M28" s="9">
         <v>8.0666208239315498E-3</v>
       </c>
-      <c r="N28" s="38"/>
+      <c r="N28" s="27"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="10"/>
@@ -1629,14 +1632,14 @@
       <c r="K29" s="9">
         <v>28160.8213906288</v>
       </c>
-      <c r="L29" s="33">
+      <c r="L29" s="22">
         <f t="shared" si="0"/>
         <v>7.8224503862857775</v>
       </c>
       <c r="M29" s="9">
         <v>9.92894414580648E-3</v>
       </c>
-      <c r="N29" s="38"/>
+      <c r="N29" s="27"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="10"/>
@@ -1655,14 +1658,14 @@
       <c r="K30" s="9">
         <v>28269.748893499302</v>
       </c>
-      <c r="L30" s="33">
+      <c r="L30" s="22">
         <f t="shared" si="0"/>
         <v>7.8527080259720279</v>
       </c>
       <c r="M30" s="9">
         <v>1.0120197998420699E-2</v>
       </c>
-      <c r="N30" s="38"/>
+      <c r="N30" s="27"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="10"/>
@@ -1681,14 +1684,14 @@
       <c r="K31" s="9">
         <v>28553.766153335499</v>
       </c>
-      <c r="L31" s="33">
+      <c r="L31" s="22">
         <f t="shared" si="0"/>
         <v>7.9316017092598603</v>
       </c>
       <c r="M31" s="9">
         <v>3.1840480536179899E-3</v>
       </c>
-      <c r="N31" s="38"/>
+      <c r="N31" s="27"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="10"/>
@@ -1707,14 +1710,14 @@
       <c r="K32" s="9">
         <v>28746.466396093299</v>
       </c>
-      <c r="L32" s="33">
+      <c r="L32" s="22">
         <f t="shared" si="0"/>
         <v>7.9851295544703609</v>
       </c>
       <c r="M32" s="9">
         <v>9.9910175715508392E-3</v>
       </c>
-      <c r="N32" s="38"/>
+      <c r="N32" s="27"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="10"/>
@@ -1733,14 +1736,14 @@
       <c r="K33" s="9">
         <v>28770.855170249899</v>
       </c>
-      <c r="L33" s="33">
+      <c r="L33" s="22">
         <f t="shared" si="0"/>
         <v>7.9919042139583052</v>
       </c>
       <c r="M33" s="9">
         <v>1.03578429023465E-2</v>
       </c>
-      <c r="N33" s="38"/>
+      <c r="N33" s="27"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="10"/>
@@ -1759,14 +1762,14 @@
       <c r="K34" s="9">
         <v>29508.431654453201</v>
       </c>
-      <c r="L34" s="33">
+      <c r="L34" s="22">
         <f t="shared" si="0"/>
         <v>8.1967865706814447</v>
       </c>
       <c r="M34" s="9">
         <v>8.2051643919719298E-3</v>
       </c>
-      <c r="N34" s="39"/>
+      <c r="N34" s="28"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="10"/>
@@ -1788,15 +1791,15 @@
         <f>AVERAGE(K25:K34)</f>
         <v>26519.919725036561</v>
       </c>
-      <c r="L35" s="34">
+      <c r="L35" s="23">
         <f t="shared" si="0"/>
         <v>7.3666443680657112</v>
       </c>
-      <c r="M35" s="43">
+      <c r="M35" s="32">
         <f>AVERAGE(M25:M34)</f>
         <v>8.778832025075024E-3</v>
       </c>
-      <c r="N35" s="40">
+      <c r="N35" s="29">
         <f>_xlfn.STDEV.P(M25:M34)</f>
         <v>4.1231366403960161E-3</v>
       </c>
@@ -1816,12 +1819,12 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="9"/>
-      <c r="L36" s="33">
+      <c r="L36" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M36" s="9"/>
-      <c r="N36" s="38"/>
+      <c r="N36" s="27"/>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="10"/>
@@ -1838,12 +1841,12 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="9"/>
-      <c r="L37" s="33">
+      <c r="L37" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M37" s="9"/>
-      <c r="N37" s="38"/>
+      <c r="N37" s="27"/>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="10"/>
@@ -1860,12 +1863,12 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="9"/>
-      <c r="L38" s="33">
+      <c r="L38" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M38" s="9"/>
-      <c r="N38" s="38"/>
+      <c r="N38" s="27"/>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="10"/>
@@ -1882,12 +1885,12 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="9"/>
-      <c r="L39" s="33">
+      <c r="L39" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M39" s="9"/>
-      <c r="N39" s="38"/>
+      <c r="N39" s="27"/>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="10"/>
@@ -1904,12 +1907,12 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="9"/>
-      <c r="L40" s="33">
+      <c r="L40" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M40" s="9"/>
-      <c r="N40" s="38"/>
+      <c r="N40" s="27"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="10"/>
@@ -1926,12 +1929,12 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="9"/>
-      <c r="L41" s="33">
+      <c r="L41" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M41" s="9"/>
-      <c r="N41" s="38"/>
+      <c r="N41" s="27"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="10"/>
@@ -1948,12 +1951,12 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="9"/>
-      <c r="L42" s="33">
+      <c r="L42" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M42" s="9"/>
-      <c r="N42" s="38"/>
+      <c r="N42" s="27"/>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="10"/>
@@ -1970,12 +1973,12 @@
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="9"/>
-      <c r="L43" s="33">
+      <c r="L43" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M43" s="9"/>
-      <c r="N43" s="38"/>
+      <c r="N43" s="27"/>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="10"/>
@@ -1992,12 +1995,12 @@
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="9"/>
-      <c r="L44" s="33">
+      <c r="L44" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M44" s="9"/>
-      <c r="N44" s="38"/>
+      <c r="N44" s="27"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="10"/>
@@ -2014,12 +2017,12 @@
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="9"/>
-      <c r="L45" s="33">
+      <c r="L45" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M45" s="9"/>
-      <c r="N45" s="39"/>
+      <c r="N45" s="28"/>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="10"/>
@@ -2041,15 +2044,15 @@
         <f>AVERAGE(K36:K45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L46" s="34" t="e">
+      <c r="L46" s="23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M46" s="43" t="e">
+      <c r="M46" s="32" t="e">
         <f>AVERAGE(M36:M45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N46" s="40" t="e">
+      <c r="N46" s="29" t="e">
         <f>_xlfn.STDEV.P(M36:M45)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2069,12 +2072,12 @@
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="9"/>
-      <c r="L47" s="33">
+      <c r="L47" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M47" s="9"/>
-      <c r="N47" s="38"/>
+      <c r="N47" s="27"/>
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="10"/>
@@ -2091,12 +2094,12 @@
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="9"/>
-      <c r="L48" s="33">
+      <c r="L48" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M48" s="9"/>
-      <c r="N48" s="38"/>
+      <c r="N48" s="27"/>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="10"/>
@@ -2113,12 +2116,12 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="9"/>
-      <c r="L49" s="33">
+      <c r="L49" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M49" s="9"/>
-      <c r="N49" s="38"/>
+      <c r="N49" s="27"/>
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="10"/>
@@ -2135,12 +2138,12 @@
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="9"/>
-      <c r="L50" s="33">
+      <c r="L50" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M50" s="9"/>
-      <c r="N50" s="38"/>
+      <c r="N50" s="27"/>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="10"/>
@@ -2157,12 +2160,12 @@
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="9"/>
-      <c r="L51" s="33">
+      <c r="L51" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M51" s="9"/>
-      <c r="N51" s="38"/>
+      <c r="N51" s="27"/>
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="10"/>
@@ -2179,12 +2182,12 @@
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="9"/>
-      <c r="L52" s="33">
+      <c r="L52" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M52" s="9"/>
-      <c r="N52" s="38"/>
+      <c r="N52" s="27"/>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="10"/>
@@ -2201,12 +2204,12 @@
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="9"/>
-      <c r="L53" s="33">
+      <c r="L53" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M53" s="9"/>
-      <c r="N53" s="38"/>
+      <c r="N53" s="27"/>
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="10"/>
@@ -2223,12 +2226,12 @@
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="9"/>
-      <c r="L54" s="33">
+      <c r="L54" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M54" s="9"/>
-      <c r="N54" s="38"/>
+      <c r="N54" s="27"/>
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="10"/>
@@ -2245,12 +2248,12 @@
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="9"/>
-      <c r="L55" s="33">
+      <c r="L55" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M55" s="9"/>
-      <c r="N55" s="38"/>
+      <c r="N55" s="27"/>
       <c r="O55" s="7"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="10"/>
@@ -2267,12 +2270,12 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="9"/>
-      <c r="L56" s="33">
+      <c r="L56" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M56" s="9"/>
-      <c r="N56" s="39"/>
+      <c r="N56" s="28"/>
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="10"/>
@@ -2294,15 +2297,15 @@
         <f>AVERAGE(K47:K56)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L57" s="34" t="e">
+      <c r="L57" s="23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M57" s="43" t="e">
+      <c r="M57" s="32" t="e">
         <f>AVERAGE(M47:M56)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N57" s="40" t="e">
+      <c r="N57" s="29" t="e">
         <f>_xlfn.STDEV.P(M47:M56)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2325,10 +2328,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2343,146 +2346,125 @@
     <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="30" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="25" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="27" t="s">
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="28"/>
-    </row>
-    <row r="2" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="15" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="40"/>
+    </row>
+    <row r="3" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="17">
-        <v>1</v>
-      </c>
-      <c r="H3" s="17">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9">
-        <v>23443.483928442001</v>
-      </c>
-      <c r="L3" s="33">
-        <f t="shared" ref="L3:L57" si="0">K3/3600</f>
-        <v>6.5120788690116669</v>
-      </c>
-      <c r="M3" s="9">
-        <v>5.3564373633609502E-3</v>
-      </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="10"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="G4" s="17">
+        <v>1</v>
+      </c>
+      <c r="H4" s="17">
+        <v>1</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9">
-        <v>23446.063204288399</v>
-      </c>
-      <c r="L4" s="33">
-        <f t="shared" si="0"/>
-        <v>6.5127953345245553</v>
+        <v>23443.483928442001</v>
+      </c>
+      <c r="L4" s="22">
+        <f t="shared" ref="L4:L58" si="0">K4/3600</f>
+        <v>6.5120788690116669</v>
       </c>
       <c r="M4" s="9">
-        <v>2.7700002813391702E-3</v>
-      </c>
-      <c r="N4" s="38"/>
+        <v>5.3564373633609502E-3</v>
+      </c>
+      <c r="N4" s="27"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="10"/>
@@ -2499,42 +2481,42 @@
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
       <c r="K5" s="9">
-        <v>24069.5798532962</v>
-      </c>
-      <c r="L5" s="33">
-        <f t="shared" si="0"/>
-        <v>6.6859944036933889</v>
+        <v>23446.063204288399</v>
+      </c>
+      <c r="L5" s="22">
+        <f t="shared" si="0"/>
+        <v>6.5127953345245553</v>
       </c>
       <c r="M5" s="9">
-        <v>8.8068969432603793E-3</v>
-      </c>
-      <c r="N5" s="38"/>
+        <v>2.7700002813391702E-3</v>
+      </c>
+      <c r="N5" s="27"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="10"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="7"/>
       <c r="J6" s="8"/>
       <c r="K6" s="9">
-        <v>24178.243791103301</v>
-      </c>
-      <c r="L6" s="33">
-        <f t="shared" si="0"/>
-        <v>6.7161788308620283</v>
+        <v>24069.5798532962</v>
+      </c>
+      <c r="L6" s="22">
+        <f t="shared" si="0"/>
+        <v>6.6859944036933889</v>
       </c>
       <c r="M6" s="9">
-        <v>5.2253123353935699E-3</v>
-      </c>
-      <c r="N6" s="38"/>
+        <v>8.8068969432603793E-3</v>
+      </c>
+      <c r="N6" s="27"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="10"/>
@@ -2551,24 +2533,24 @@
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
       <c r="K7" s="9">
-        <v>24185.308612108201</v>
-      </c>
-      <c r="L7" s="33">
-        <f t="shared" si="0"/>
-        <v>6.7181412811411674</v>
+        <v>24178.243791103301</v>
+      </c>
+      <c r="L7" s="22">
+        <f t="shared" si="0"/>
+        <v>6.7161788308620283</v>
       </c>
       <c r="M7" s="9">
-        <v>3.7938773255723501E-3</v>
-      </c>
-      <c r="N7" s="38"/>
+        <v>5.2253123353935699E-3</v>
+      </c>
+      <c r="N7" s="27"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="10"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
@@ -2577,16 +2559,16 @@
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
       <c r="K8" s="9">
-        <v>24187.099130868901</v>
-      </c>
-      <c r="L8" s="33">
-        <f t="shared" si="0"/>
-        <v>6.7186386474635835</v>
+        <v>24185.308612108201</v>
+      </c>
+      <c r="L8" s="22">
+        <f t="shared" si="0"/>
+        <v>6.7181412811411674</v>
       </c>
       <c r="M8" s="9">
-        <v>5.25045524913353E-3</v>
-      </c>
-      <c r="N8" s="38"/>
+        <v>3.7938773255723501E-3</v>
+      </c>
+      <c r="N8" s="27"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="10"/>
@@ -2598,21 +2580,21 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="J9" s="8"/>
       <c r="K9" s="9">
-        <v>24747.846797943101</v>
-      </c>
-      <c r="L9" s="33">
-        <f t="shared" si="0"/>
-        <v>6.8744018883175277</v>
+        <v>24187.099130868901</v>
+      </c>
+      <c r="L9" s="22">
+        <f t="shared" si="0"/>
+        <v>6.7186386474635835</v>
       </c>
       <c r="M9" s="9">
-        <v>4.6013837068983304E-3</v>
-      </c>
-      <c r="N9" s="38"/>
+        <v>5.25045524913353E-3</v>
+      </c>
+      <c r="N9" s="27"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="10"/>
@@ -2629,16 +2611,16 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="9">
-        <v>24775.8144497871</v>
-      </c>
-      <c r="L10" s="33">
-        <f t="shared" si="0"/>
-        <v>6.8821706804964169</v>
+        <v>24747.846797943101</v>
+      </c>
+      <c r="L10" s="22">
+        <f t="shared" si="0"/>
+        <v>6.8744018883175277</v>
       </c>
       <c r="M10" s="9">
-        <v>5.8164643084347599E-3</v>
-      </c>
-      <c r="N10" s="38"/>
+        <v>4.6013837068983304E-3</v>
+      </c>
+      <c r="N10" s="27"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="10"/>
@@ -2655,21 +2637,21 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="9">
-        <v>26158.736519098198</v>
-      </c>
-      <c r="L11" s="33">
-        <f t="shared" si="0"/>
-        <v>7.2663156997494998</v>
+        <v>24775.8144497871</v>
+      </c>
+      <c r="L11" s="22">
+        <f t="shared" si="0"/>
+        <v>6.8821706804964169</v>
       </c>
       <c r="M11" s="9">
-        <v>3.2210157822929499E-3</v>
-      </c>
-      <c r="N11" s="38"/>
+        <v>5.8164643084347599E-3</v>
+      </c>
+      <c r="N11" s="27"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2681,109 +2663,109 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="9">
-        <v>31225.6987636089</v>
-      </c>
-      <c r="L12" s="33">
-        <f t="shared" si="0"/>
-        <v>8.6738052121135834</v>
+        <v>26158.736519098198</v>
+      </c>
+      <c r="L12" s="22">
+        <f t="shared" si="0"/>
+        <v>7.2663156997494998</v>
       </c>
       <c r="M12" s="9">
-        <v>6.0233122700821401E-3</v>
-      </c>
-      <c r="N12" s="39"/>
+        <v>3.2210157822929499E-3</v>
+      </c>
+      <c r="N12" s="27"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="10"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="9">
+        <v>31225.6987636089</v>
+      </c>
+      <c r="L13" s="22">
+        <f t="shared" si="0"/>
+        <v>8.6738052121135834</v>
+      </c>
+      <c r="M13" s="9">
+        <v>6.0233122700821401E-3</v>
+      </c>
+      <c r="N13" s="28"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="13">
-        <f>AVERAGE(K3:K12)</f>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13">
+        <f>AVERAGE(K4:K13)</f>
         <v>25041.787505054432</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L14" s="23">
         <f t="shared" si="0"/>
         <v>6.9560520847373422</v>
       </c>
-      <c r="M13" s="43">
-        <f>AVERAGE(M3:M12)</f>
+      <c r="M14" s="32">
+        <f>AVERAGE(M4:M13)</f>
         <v>5.0865155565768139E-3</v>
       </c>
-      <c r="N13" s="40">
-        <f>_xlfn.STDEV.P(M3:M12)</f>
+      <c r="N14" s="29">
+        <f>_xlfn.STDEV.P(M4:M13)</f>
         <v>1.6162688022611615E-3</v>
       </c>
-      <c r="O13" s="11"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="14"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="O14" s="11"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="14"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="17">
-        <v>1</v>
-      </c>
-      <c r="H14" s="17">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="9">
-        <v>19853.111304283098</v>
-      </c>
-      <c r="L14" s="33">
-        <f t="shared" si="0"/>
-        <v>5.5147531400786383</v>
-      </c>
-      <c r="M14" s="9">
-        <v>1.02742245932989E-2</v>
-      </c>
-      <c r="N14" s="38"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="10"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="G15" s="17">
+        <v>1</v>
+      </c>
+      <c r="H15" s="17">
+        <v>1</v>
+      </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="9">
-        <v>19977.257696866898</v>
-      </c>
-      <c r="L15" s="33">
-        <f t="shared" si="0"/>
-        <v>5.5492382491296937</v>
+        <v>19853.111304283098</v>
+      </c>
+      <c r="L15" s="22">
+        <f t="shared" si="0"/>
+        <v>5.5147531400786383</v>
       </c>
       <c r="M15" s="9">
-        <v>9.0193454392995791E-3</v>
-      </c>
-      <c r="N15" s="38"/>
+        <v>1.02742245932989E-2</v>
+      </c>
+      <c r="N15" s="27"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="10"/>
@@ -2800,16 +2782,16 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="9">
-        <v>20045.738177061001</v>
-      </c>
-      <c r="L16" s="33">
-        <f t="shared" si="0"/>
-        <v>5.5682606047391667</v>
+        <v>19977.257696866898</v>
+      </c>
+      <c r="L16" s="22">
+        <f t="shared" si="0"/>
+        <v>5.5492382491296937</v>
       </c>
       <c r="M16" s="9">
-        <v>2.2932177052897299E-2</v>
-      </c>
-      <c r="N16" s="38"/>
+        <v>9.0193454392995791E-3</v>
+      </c>
+      <c r="N16" s="27"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="10"/>
@@ -2826,16 +2808,16 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="9">
-        <v>20145.485303163499</v>
-      </c>
-      <c r="L17" s="33">
-        <f t="shared" si="0"/>
-        <v>5.5959681397676384</v>
+        <v>20045.738177061001</v>
+      </c>
+      <c r="L17" s="22">
+        <f t="shared" si="0"/>
+        <v>5.5682606047391667</v>
       </c>
       <c r="M17" s="9">
-        <v>1.2723282043486101E-2</v>
-      </c>
-      <c r="N17" s="38"/>
+        <v>2.2932177052897299E-2</v>
+      </c>
+      <c r="N17" s="27"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="10"/>
@@ -2852,16 +2834,16 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="9">
-        <v>20230.4215531349</v>
-      </c>
-      <c r="L18" s="33">
-        <f t="shared" si="0"/>
-        <v>5.6195615425374719</v>
+        <v>20145.485303163499</v>
+      </c>
+      <c r="L18" s="22">
+        <f t="shared" si="0"/>
+        <v>5.5959681397676384</v>
       </c>
       <c r="M18" s="9">
-        <v>1.17744569635196E-2</v>
-      </c>
-      <c r="N18" s="38"/>
+        <v>1.2723282043486101E-2</v>
+      </c>
+      <c r="N18" s="27"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="10"/>
@@ -2878,16 +2860,16 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="9">
-        <v>24919.0961539745</v>
-      </c>
-      <c r="L19" s="33">
-        <f t="shared" si="0"/>
-        <v>6.9219711538818061</v>
+        <v>20230.4215531349</v>
+      </c>
+      <c r="L19" s="22">
+        <f t="shared" si="0"/>
+        <v>5.6195615425374719</v>
       </c>
       <c r="M19" s="9">
-        <v>6.9664132106141401E-3</v>
-      </c>
-      <c r="N19" s="38"/>
+        <v>1.17744569635196E-2</v>
+      </c>
+      <c r="N19" s="27"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="10"/>
@@ -2904,16 +2886,16 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="9">
-        <v>25266.763270616499</v>
-      </c>
-      <c r="L20" s="33">
-        <f t="shared" si="0"/>
-        <v>7.0185453529490278</v>
+        <v>24919.0961539745</v>
+      </c>
+      <c r="L20" s="22">
+        <f t="shared" si="0"/>
+        <v>6.9219711538818061</v>
       </c>
       <c r="M20" s="9">
-        <v>1.63069876432849E-2</v>
-      </c>
-      <c r="N20" s="38"/>
+        <v>6.9664132106141401E-3</v>
+      </c>
+      <c r="N20" s="27"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="10"/>
@@ -2930,16 +2912,16 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="9">
-        <v>25356.218265295</v>
-      </c>
-      <c r="L21" s="33">
-        <f t="shared" si="0"/>
-        <v>7.0433939625819439</v>
+        <v>25266.763270616499</v>
+      </c>
+      <c r="L21" s="22">
+        <f t="shared" si="0"/>
+        <v>7.0185453529490278</v>
       </c>
       <c r="M21" s="9">
-        <v>1.9925938797201101E-2</v>
-      </c>
-      <c r="N21" s="38"/>
+        <v>1.63069876432849E-2</v>
+      </c>
+      <c r="N21" s="27"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="10"/>
@@ -2956,21 +2938,21 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="9">
-        <v>25720.109377622601</v>
-      </c>
-      <c r="L22" s="33">
-        <f t="shared" si="0"/>
-        <v>7.1444748271173895</v>
+        <v>25356.218265295</v>
+      </c>
+      <c r="L22" s="22">
+        <f t="shared" si="0"/>
+        <v>7.0433939625819439</v>
       </c>
       <c r="M22" s="9">
-        <v>1.3228500792895099E-2</v>
-      </c>
-      <c r="N22" s="38"/>
+        <v>1.9925938797201101E-2</v>
+      </c>
+      <c r="N22" s="27"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2982,82 +2964,78 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="9">
-        <v>25921.810496091799</v>
-      </c>
-      <c r="L23" s="33">
-        <f t="shared" si="0"/>
-        <v>7.2005029155810556</v>
+        <v>25720.109377622601</v>
+      </c>
+      <c r="L23" s="22">
+        <f t="shared" si="0"/>
+        <v>7.1444748271173895</v>
       </c>
       <c r="M23" s="9">
-        <v>1.1608900017493901E-2</v>
-      </c>
-      <c r="N23" s="39"/>
+        <v>1.3228500792895099E-2</v>
+      </c>
+      <c r="N23" s="27"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="10"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="9">
+        <v>25921.810496091799</v>
+      </c>
+      <c r="L24" s="22">
+        <f t="shared" si="0"/>
+        <v>7.2005029155810556</v>
+      </c>
+      <c r="M24" s="9">
+        <v>1.1608900017493901E-2</v>
+      </c>
+      <c r="N24" s="28"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13">
-        <f>AVERAGE(K14:K23)</f>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="13">
+        <f>AVERAGE(K15:K24)</f>
         <v>22743.60115981098</v>
       </c>
-      <c r="L24" s="34">
+      <c r="L25" s="23">
         <f t="shared" si="0"/>
         <v>6.3176669888363834</v>
       </c>
-      <c r="M24" s="43">
-        <f>AVERAGE(M14:M23)</f>
+      <c r="M25" s="32">
+        <f>AVERAGE(M15:M24)</f>
         <v>1.3476022655399062E-2</v>
       </c>
-      <c r="N24" s="40">
-        <f>_xlfn.STDEV.P(M14:M23)</f>
+      <c r="N25" s="29">
+        <f>_xlfn.STDEV.P(M15:M24)</f>
         <v>4.6747459075423617E-3</v>
       </c>
-      <c r="O24" s="11"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="14"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="17">
-        <v>1</v>
-      </c>
-      <c r="H25" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="9">
-        <v>23725.346458911801</v>
-      </c>
-      <c r="L25" s="33">
-        <f t="shared" si="0"/>
-        <v>6.5903740163643896</v>
-      </c>
-      <c r="M25" s="9">
-        <v>1.2905060853988E-2</v>
-      </c>
-      <c r="N25" s="38"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="10"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="14"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
@@ -3066,21 +3044,25 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
+      <c r="G26" s="17">
+        <v>1</v>
+      </c>
+      <c r="H26" s="17">
+        <v>0.5</v>
+      </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="9">
-        <v>24389.085169553699</v>
-      </c>
-      <c r="L26" s="33">
-        <f t="shared" si="0"/>
-        <v>6.774745880431583</v>
+        <v>23725.346458911801</v>
+      </c>
+      <c r="L26" s="22">
+        <f t="shared" si="0"/>
+        <v>6.5903740163643896</v>
       </c>
       <c r="M26" s="9">
-        <v>1.8933903946841399E-2</v>
-      </c>
-      <c r="N26" s="38"/>
+        <v>1.2905060853988E-2</v>
+      </c>
+      <c r="N26" s="27"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="10"/>
@@ -3097,16 +3079,16 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="9">
-        <v>24613.596043348301</v>
-      </c>
-      <c r="L27" s="33">
-        <f t="shared" si="0"/>
-        <v>6.8371100120411947</v>
+        <v>24389.085169553699</v>
+      </c>
+      <c r="L27" s="22">
+        <f t="shared" si="0"/>
+        <v>6.774745880431583</v>
       </c>
       <c r="M27" s="9">
-        <v>1.9697181905423099E-2</v>
-      </c>
-      <c r="N27" s="38"/>
+        <v>1.8933903946841399E-2</v>
+      </c>
+      <c r="N27" s="27"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="10"/>
@@ -3123,16 +3105,16 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="9">
-        <v>24900.0142643451</v>
-      </c>
-      <c r="L28" s="33">
-        <f t="shared" si="0"/>
-        <v>6.9166706289847504</v>
+        <v>24613.596043348301</v>
+      </c>
+      <c r="L28" s="22">
+        <f t="shared" si="0"/>
+        <v>6.8371100120411947</v>
       </c>
       <c r="M28" s="9">
-        <v>1.6453028330288499E-2</v>
-      </c>
-      <c r="N28" s="38"/>
+        <v>1.9697181905423099E-2</v>
+      </c>
+      <c r="N28" s="27"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="10"/>
@@ -3149,16 +3131,16 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="9">
-        <v>25041.494599103899</v>
-      </c>
-      <c r="L29" s="33">
-        <f t="shared" si="0"/>
-        <v>6.9559707219733049</v>
+        <v>24900.0142643451</v>
+      </c>
+      <c r="L29" s="22">
+        <f t="shared" si="0"/>
+        <v>6.9166706289847504</v>
       </c>
       <c r="M29" s="9">
-        <v>1.6814913986479201E-2</v>
-      </c>
-      <c r="N29" s="38"/>
+        <v>1.6453028330288499E-2</v>
+      </c>
+      <c r="N29" s="27"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="10"/>
@@ -3175,16 +3157,16 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="9">
-        <v>25088.834602594299</v>
-      </c>
-      <c r="L30" s="33">
-        <f t="shared" si="0"/>
-        <v>6.9691207229428613</v>
+        <v>25041.494599103899</v>
+      </c>
+      <c r="L30" s="22">
+        <f t="shared" si="0"/>
+        <v>6.9559707219733049</v>
       </c>
       <c r="M30" s="9">
-        <v>1.2651676729284699E-2</v>
-      </c>
-      <c r="N30" s="38"/>
+        <v>1.6814913986479201E-2</v>
+      </c>
+      <c r="N30" s="27"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="10"/>
@@ -3201,16 +3183,16 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="9">
-        <v>25326.341679811401</v>
-      </c>
-      <c r="L31" s="33">
-        <f t="shared" si="0"/>
-        <v>7.0350949110587226</v>
+        <v>25088.834602594299</v>
+      </c>
+      <c r="L31" s="22">
+        <f t="shared" si="0"/>
+        <v>6.9691207229428613</v>
       </c>
       <c r="M31" s="9">
-        <v>1.5551522895722401E-2</v>
-      </c>
-      <c r="N31" s="38"/>
+        <v>1.2651676729284699E-2</v>
+      </c>
+      <c r="N31" s="27"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="10"/>
@@ -3227,16 +3209,16 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="9">
-        <v>25380.994620084701</v>
-      </c>
-      <c r="L32" s="33">
-        <f t="shared" si="0"/>
-        <v>7.0502762833568617</v>
+        <v>25326.341679811401</v>
+      </c>
+      <c r="L32" s="22">
+        <f t="shared" si="0"/>
+        <v>7.0350949110587226</v>
       </c>
       <c r="M32" s="9">
-        <v>1.92231314835065E-2</v>
-      </c>
-      <c r="N32" s="38"/>
+        <v>1.5551522895722401E-2</v>
+      </c>
+      <c r="N32" s="27"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="10"/>
@@ -3253,21 +3235,21 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="9">
-        <v>25394.036008596398</v>
-      </c>
-      <c r="L33" s="33">
-        <f t="shared" si="0"/>
-        <v>7.0538988912767771</v>
+        <v>25380.994620084701</v>
+      </c>
+      <c r="L33" s="22">
+        <f t="shared" si="0"/>
+        <v>7.0502762833568617</v>
       </c>
       <c r="M33" s="9">
-        <v>1.2819812175032599E-2</v>
-      </c>
-      <c r="N33" s="38"/>
+        <v>1.92231314835065E-2</v>
+      </c>
+      <c r="N33" s="27"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="10"/>
     </row>
-    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -3279,74 +3261,78 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="9">
-        <v>25567.5457630157</v>
-      </c>
-      <c r="L34" s="33">
-        <f t="shared" si="0"/>
-        <v>7.1020960452821384</v>
+        <v>25394.036008596398</v>
+      </c>
+      <c r="L34" s="22">
+        <f t="shared" si="0"/>
+        <v>7.0538988912767771</v>
       </c>
       <c r="M34" s="9">
-        <v>1.78610949361723E-2</v>
-      </c>
-      <c r="N34" s="39"/>
+        <v>1.2819812175032599E-2</v>
+      </c>
+      <c r="N34" s="27"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="10"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="9">
+        <v>25567.5457630157</v>
+      </c>
+      <c r="L35" s="22">
+        <f t="shared" si="0"/>
+        <v>7.1020960452821384</v>
+      </c>
+      <c r="M35" s="9">
+        <v>1.78610949361723E-2</v>
+      </c>
+      <c r="N35" s="28"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="13">
-        <f>AVERAGE(K25:K34)</f>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="13">
+        <f>AVERAGE(K26:K35)</f>
         <v>24942.728920936526</v>
       </c>
-      <c r="L35" s="34">
+      <c r="L36" s="23">
         <f t="shared" si="0"/>
         <v>6.9285358113712574</v>
       </c>
-      <c r="M35" s="43">
-        <f>AVERAGE(M25:M34)</f>
+      <c r="M36" s="32">
+        <f>AVERAGE(M26:M35)</f>
         <v>1.629113272427387E-2</v>
       </c>
-      <c r="N35" s="40">
-        <f>_xlfn.STDEV.P(M25:M34)</f>
+      <c r="N36" s="29">
+        <f>_xlfn.STDEV.P(M26:M35)</f>
         <v>2.5933680327391222E-3</v>
       </c>
-      <c r="O35" s="11"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="14"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="9"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="10"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="14"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
@@ -3360,12 +3346,12 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="9"/>
-      <c r="L37" s="33">
+      <c r="L37" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M37" s="9"/>
-      <c r="N37" s="38"/>
+      <c r="N37" s="27"/>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="10"/>
@@ -3382,12 +3368,12 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="9"/>
-      <c r="L38" s="33">
+      <c r="L38" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M38" s="9"/>
-      <c r="N38" s="38"/>
+      <c r="N38" s="27"/>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="10"/>
@@ -3404,12 +3390,12 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="9"/>
-      <c r="L39" s="33">
+      <c r="L39" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M39" s="9"/>
-      <c r="N39" s="38"/>
+      <c r="N39" s="27"/>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="10"/>
@@ -3426,12 +3412,12 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="9"/>
-      <c r="L40" s="33">
+      <c r="L40" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M40" s="9"/>
-      <c r="N40" s="38"/>
+      <c r="N40" s="27"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="10"/>
@@ -3448,12 +3434,12 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="9"/>
-      <c r="L41" s="33">
+      <c r="L41" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M41" s="9"/>
-      <c r="N41" s="38"/>
+      <c r="N41" s="27"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="10"/>
@@ -3470,12 +3456,12 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="9"/>
-      <c r="L42" s="33">
+      <c r="L42" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M42" s="9"/>
-      <c r="N42" s="38"/>
+      <c r="N42" s="27"/>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="10"/>
@@ -3492,12 +3478,12 @@
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="9"/>
-      <c r="L43" s="33">
+      <c r="L43" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M43" s="9"/>
-      <c r="N43" s="38"/>
+      <c r="N43" s="27"/>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="10"/>
@@ -3514,17 +3500,17 @@
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="9"/>
-      <c r="L44" s="33">
+      <c r="L44" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M44" s="9"/>
-      <c r="N44" s="38"/>
+      <c r="N44" s="27"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="10"/>
     </row>
-    <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -3536,70 +3522,70 @@
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="9"/>
-      <c r="L45" s="33">
+      <c r="L45" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M45" s="9"/>
-      <c r="N45" s="39"/>
+      <c r="N45" s="27"/>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="10"/>
     </row>
     <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="9"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="10"/>
+    </row>
+    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="13" t="e">
-        <f>AVERAGE(K36:K45)</f>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="13" t="e">
+        <f>AVERAGE(K37:K46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L46" s="34" t="e">
+      <c r="L47" s="23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M46" s="43" t="e">
-        <f>AVERAGE(M36:M45)</f>
+      <c r="M47" s="32" t="e">
+        <f>AVERAGE(M37:M46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N46" s="40" t="e">
-        <f>_xlfn.STDEV.P(M36:M45)</f>
+      <c r="N47" s="29" t="e">
+        <f>_xlfn.STDEV.P(M37:M46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O46" s="11"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="14"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="9"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="10"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="14"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
@@ -3613,12 +3599,12 @@
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="9"/>
-      <c r="L48" s="33">
+      <c r="L48" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M48" s="9"/>
-      <c r="N48" s="38"/>
+      <c r="N48" s="27"/>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="10"/>
@@ -3635,12 +3621,12 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="9"/>
-      <c r="L49" s="33">
+      <c r="L49" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M49" s="9"/>
-      <c r="N49" s="38"/>
+      <c r="N49" s="27"/>
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="10"/>
@@ -3657,12 +3643,12 @@
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="9"/>
-      <c r="L50" s="33">
+      <c r="L50" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M50" s="9"/>
-      <c r="N50" s="38"/>
+      <c r="N50" s="27"/>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="10"/>
@@ -3679,12 +3665,12 @@
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="9"/>
-      <c r="L51" s="33">
+      <c r="L51" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M51" s="9"/>
-      <c r="N51" s="38"/>
+      <c r="N51" s="27"/>
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="10"/>
@@ -3701,12 +3687,12 @@
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="9"/>
-      <c r="L52" s="33">
+      <c r="L52" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M52" s="9"/>
-      <c r="N52" s="38"/>
+      <c r="N52" s="27"/>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="10"/>
@@ -3723,12 +3709,12 @@
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="9"/>
-      <c r="L53" s="33">
+      <c r="L53" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M53" s="9"/>
-      <c r="N53" s="38"/>
+      <c r="N53" s="27"/>
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="10"/>
@@ -3745,12 +3731,12 @@
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="9"/>
-      <c r="L54" s="33">
+      <c r="L54" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M54" s="9"/>
-      <c r="N54" s="38"/>
+      <c r="N54" s="27"/>
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="10"/>
@@ -3767,17 +3753,17 @@
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="9"/>
-      <c r="L55" s="33">
+      <c r="L55" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M55" s="9"/>
-      <c r="N55" s="38"/>
+      <c r="N55" s="27"/>
       <c r="O55" s="7"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="10"/>
     </row>
-    <row r="56" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -3789,56 +3775,78 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="9"/>
-      <c r="L56" s="33">
+      <c r="L56" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M56" s="9"/>
-      <c r="N56" s="39"/>
+      <c r="N56" s="27"/>
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="10"/>
     </row>
     <row r="57" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="6"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="9"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="10"/>
+    </row>
+    <row r="58" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="13" t="e">
-        <f>AVERAGE(K47:K56)</f>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="13" t="e">
+        <f>AVERAGE(K48:K57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L57" s="34" t="e">
+      <c r="L58" s="23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M57" s="43" t="e">
-        <f>AVERAGE(M47:M56)</f>
+      <c r="M58" s="32" t="e">
+        <f>AVERAGE(M48:M57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N57" s="40" t="e">
-        <f>_xlfn.STDEV.P(M47:M56)</f>
+      <c r="N58" s="29" t="e">
+        <f>_xlfn.STDEV.P(M48:M57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O57" s="11"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="14"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="O2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
